--- a/InputData/elec/BPTBfRN/Boolean Plant Types Built for Reliability Needs.xlsx
+++ b/InputData/elec/BPTBfRN/Boolean Plant Types Built for Reliability Needs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\BPTBfRN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E6A413-A824-425A-89D8-3C918CDD1061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C398B7-2F93-4ADF-8C9E-E281EEC55201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="6645" windowWidth="29505" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="2025" windowWidth="19710" windowHeight="20325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -669,7 +669,7 @@
       </c>
       <c r="B14">
         <f>B2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -678,7 +678,7 @@
       </c>
       <c r="B15">
         <f>B7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
       </c>
       <c r="B18">
         <f>B10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BPTBfRN/Boolean Plant Types Built for Reliability Needs.xlsx
+++ b/InputData/elec/BPTBfRN/Boolean Plant Types Built for Reliability Needs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\BPTBfRN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BPTBfRN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C398B7-2F93-4ADF-8C9E-E281EEC55201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FC3A9D-6F7F-4527-A818-85FD4D4CFA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="2025" windowWidth="19710" windowHeight="20325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Source:</t>
   </si>
@@ -111,6 +111,24 @@
   </si>
   <si>
     <t>and the model preferentially uses these plant types when estimating the annual capacity price.</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
   </si>
 </sst>
 </file>
@@ -178,9 +196,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -218,9 +236,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,26 +271,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,26 +306,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -553,9 +537,11 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -706,6 +692,54 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InputData/elec/BPTBfRN/Boolean Plant Types Built for Reliability Needs.xlsx
+++ b/InputData/elec/BPTBfRN/Boolean Plant Types Built for Reliability Needs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BPTBfRN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\BPTBfRN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FC3A9D-6F7F-4527-A818-85FD4D4CFA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80DAE91-F84C-4936-939C-09AE56C5F154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="3330" windowWidth="28770" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -539,8 +539,8 @@
   </sheetPr>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/InputData/elec/BPTBfRN/Boolean Plant Types Built for Reliability Needs.xlsx
+++ b/InputData/elec/BPTBfRN/Boolean Plant Types Built for Reliability Needs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\BPTBfRN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BPTBfRN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80DAE91-F84C-4936-939C-09AE56C5F154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D6881D-65D6-4978-9EE0-D908E4B94B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="3330" windowWidth="28770" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Source:</t>
   </si>
@@ -128,14 +128,17 @@
     <t>small modular reactor</t>
   </si>
   <si>
-    <t>hydrogen</t>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +150,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,11 +182,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -537,10 +550,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,10 +746,18 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
         <v>1</v>
       </c>
     </row>
